--- a/MELI.xlsx
+++ b/MELI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B9F0FC-A539-4FD8-99E4-4648123F410A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D685D04D-0127-4253-B704-303C29BFEE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{B61D8A75-B4AF-4E0D-9F19-D8242793AFF5}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{B61D8A75-B4AF-4E0D-9F19-D8242793AFF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t xml:space="preserve">Mercardo Libre </t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>S&amp;M</t>
-  </si>
-  <si>
-    <t>Provision for Doubful Accounts</t>
   </si>
   <si>
     <t>G&amp;A</t>
@@ -219,10 +216,19 @@
     <t>Credit Revenues</t>
   </si>
   <si>
-    <t xml:space="preserve">Balance Sheet </t>
+    <t>Q225</t>
   </si>
   <si>
-    <t>Income Statement</t>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Provisions</t>
   </si>
 </sst>
 </file>
@@ -241,6 +247,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -285,13 +297,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,27 +317,32 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -672,7 +682,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <v>1737.97</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -707,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="5">
-        <v>50.697437999999998</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>10</v>
+        <v>50.697375000000001</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -722,7 +732,7 @@
       </c>
       <c r="H5" s="5">
         <f>H3*H4</f>
-        <v>88110.626320859999</v>
+        <v>163042.758</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -733,11 +743,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="5">
-        <f>2818+1005+4073</f>
-        <v>7896</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
+        <f>3008+4634</f>
+        <v>7642</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -745,58 +755,58 @@
         <v>7</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>10</v>
+        <v>75</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H8" s="5">
         <f>H5-H6+H7</f>
-        <v>80214.626320859999</v>
+        <v>155475.758</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -810,13 +820,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DB4669-57E1-463F-8B37-D333EB2BBF06}">
-  <dimension ref="A1:AX419"/>
+  <dimension ref="A1:AX417"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -856,22 +866,51 @@
       <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <f>1780+62</f>
+        <v>1842</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2063</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>2571</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2786</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2913</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>3082</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3473</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -879,19 +918,29 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
-        <f>1780+62</f>
-        <v>1842</v>
-      </c>
-      <c r="E4" s="5"/>
+        <f>771+84</f>
+        <v>855</v>
+      </c>
+      <c r="E4" s="5">
+        <v>910</v>
+      </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>971</v>
+      </c>
       <c r="H4" s="5">
-        <v>2786</v>
-      </c>
-      <c r="I4" s="5"/>
+        <v>863</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1033</v>
+      </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="K4" s="5">
+        <v>1222</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1527</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -902,19 +951,29 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
-        <f>771+84</f>
-        <v>855</v>
-      </c>
-      <c r="E5" s="5"/>
+        <f>703+21</f>
+        <v>724</v>
+      </c>
+      <c r="E5" s="5">
+        <v>795</v>
+      </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5">
+        <v>615</v>
+      </c>
       <c r="H5" s="5">
-        <v>863</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>1201</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1145</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="K5" s="5">
+        <v>1382</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1506</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -925,19 +984,29 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
-        <f>703+21</f>
-        <v>724</v>
-      </c>
-      <c r="E6" s="5"/>
+        <f>161+3</f>
+        <v>164</v>
+      </c>
+      <c r="E6" s="5">
+        <v>159</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5">
+        <v>176</v>
+      </c>
       <c r="H6" s="5">
-        <v>1201</v>
-      </c>
-      <c r="I6" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="I6" s="5">
+        <v>221</v>
+      </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="K6" s="5">
+        <v>249</v>
+      </c>
+      <c r="L6" s="5">
+        <v>284</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -948,19 +1017,28 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5">
-        <f>161+3</f>
-        <v>164</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>1584</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1796</v>
+      </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>2128</v>
+      </c>
       <c r="H7" s="5">
-        <v>223</v>
-      </c>
-      <c r="I7" s="5"/>
+        <v>2502</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2601</v>
+      </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="K7" s="5">
+        <v>2701</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3028</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -971,18 +1049,28 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
-        <v>1584</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>352</v>
+      </c>
+      <c r="E8" s="5">
+        <v>332</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>368</v>
+      </c>
       <c r="H8" s="5">
-        <v>2502</v>
-      </c>
-      <c r="I8" s="5"/>
+        <v>468</v>
+      </c>
+      <c r="I8" s="5">
+        <v>538</v>
+      </c>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="5">
+        <v>602</v>
+      </c>
+      <c r="L8" s="5">
+        <v>811</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -993,106 +1081,191 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
-        <v>352</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>1041</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1118</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>1057</v>
+      </c>
       <c r="H9" s="5">
-        <v>468</v>
-      </c>
-      <c r="I9" s="5"/>
+        <v>1215</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1249</v>
+      </c>
       <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="K9" s="5">
+        <v>1473</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1610</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
-        <v>1041</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>596</v>
+      </c>
+      <c r="E10" s="5">
+        <v>672</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>770</v>
+      </c>
       <c r="H10" s="5">
-        <v>1215</v>
-      </c>
-      <c r="I10" s="5"/>
+        <v>875</v>
+      </c>
+      <c r="I10" s="5">
+        <v>910</v>
+      </c>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="K10" s="5">
+        <v>1146</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1326</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
-        <v>596</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9</v>
+      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
       <c r="H11" s="5">
-        <v>875</v>
-      </c>
-      <c r="I11" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="I11" s="5">
+        <v>14</v>
+      </c>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="K11" s="5">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5">
+        <v>15</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>3221</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3586</v>
+      </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>3955</v>
+      </c>
       <c r="H12" s="5">
-        <v>13</v>
-      </c>
-      <c r="I12" s="5"/>
+        <v>4592</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4760</v>
+      </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="5">
+        <v>5320</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5964</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
-        <v>3221</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>364</v>
+      </c>
+      <c r="E13" s="5">
+        <v>341</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5">
+        <v>378</v>
+      </c>
       <c r="H13" s="5">
-        <v>4592</v>
-      </c>
-      <c r="I13" s="5"/>
+        <v>481</v>
+      </c>
+      <c r="I13" s="5">
+        <v>552</v>
+      </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="K13" s="5">
+        <v>615</v>
+      </c>
+      <c r="L13" s="5">
+        <v>826</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1133,25 +1306,57 @@
       <c r="AX13" s="5"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
-        <v>364</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <v>481</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ref="C14:G14" si="0">+C12+C13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>3585</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>3927</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>4333</v>
+      </c>
+      <c r="H14" s="9">
+        <f>+H12+H13</f>
+        <v>5073</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" ref="I14:N14" si="1">+I12+I13</f>
+        <v>5312</v>
+      </c>
+      <c r="J14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="1"/>
+        <v>5935</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="1"/>
+        <v>6790</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1190,25 +1395,33 @@
       <c r="AX14" s="5"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="10">
-        <f>+D13+D14</f>
-        <v>3585</v>
-      </c>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5">
+        <v>1754</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1832</v>
+      </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10">
-        <f>+H13+H14</f>
-        <v>5073</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="G15" s="5">
+        <v>2309</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2708</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2873</v>
+      </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="K15" s="5">
+        <v>3164</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3696</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1250,24 +1463,56 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:K16" si="2">+C14-C15</f>
+        <v>0</v>
+      </c>
       <c r="D16" s="5">
-        <v>1754</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+        <f t="shared" si="2"/>
+        <v>1831</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>2095</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
       <c r="H16" s="5">
-        <v>2708</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+        <f t="shared" si="2"/>
+        <v>2365</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="2"/>
+        <v>2439</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="2"/>
+        <v>2771</v>
+      </c>
+      <c r="L16" s="5">
+        <f>+L14-L15</f>
+        <v>3094</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" ref="M16:N16" si="3">+M14-M15</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -1307,24 +1552,32 @@
     </row>
     <row r="17" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5">
-        <f>D15-D16</f>
-        <v>1831</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>368</v>
+      </c>
+      <c r="E17" s="5">
+        <v>396</v>
+      </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="5">
+        <v>458</v>
+      </c>
       <c r="H17" s="5">
-        <f>H15-H16</f>
-        <v>2365</v>
-      </c>
-      <c r="I17" s="5"/>
+        <v>460</v>
+      </c>
+      <c r="I17" s="5">
+        <v>504</v>
+      </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="K17" s="5">
+        <v>551</v>
+      </c>
+      <c r="L17" s="5">
+        <v>567</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1366,22 +1619,32 @@
     </row>
     <row r="18" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5">
-        <v>368</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>383</v>
+      </c>
+      <c r="E18" s="5">
+        <v>441</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="5">
+        <v>478</v>
+      </c>
       <c r="H18" s="5">
-        <v>460</v>
-      </c>
-      <c r="I18" s="5"/>
+        <v>511</v>
+      </c>
+      <c r="I18" s="5">
+        <v>566</v>
+      </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="K18" s="5">
+        <v>599</v>
+      </c>
+      <c r="L18" s="5">
+        <v>751</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -1422,23 +1685,33 @@
       <c r="AX18" s="5"/>
     </row>
     <row r="19" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>26</v>
+      <c r="B19" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5">
-        <v>383</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="E19" s="5">
+        <v>277</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="5">
+        <v>374</v>
+      </c>
       <c r="H19" s="5">
-        <v>511</v>
-      </c>
-      <c r="I19" s="5"/>
+        <v>450</v>
+      </c>
+      <c r="I19" s="5">
+        <v>507</v>
+      </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="K19" s="5">
+        <v>603</v>
+      </c>
+      <c r="L19" s="5">
+        <v>690</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1484,18 +1757,28 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
-        <v>222</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="E20" s="5">
+        <v>196</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="5">
+        <v>186</v>
+      </c>
       <c r="H20" s="5">
-        <v>450</v>
-      </c>
-      <c r="I20" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="I20" s="5">
+        <v>305</v>
+      </c>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="5">
+        <v>255</v>
+      </c>
+      <c r="L20" s="5">
+        <v>261</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1539,22 +1822,54 @@
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <f t="shared" ref="C21:K21" si="4">+C16-SUM(C17:C20)</f>
+        <v>0</v>
+      </c>
       <c r="D21" s="5">
-        <v>189</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+        <f t="shared" si="4"/>
+        <v>669</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="4"/>
+        <v>785</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="4"/>
+        <v>528</v>
+      </c>
       <c r="H21" s="5">
-        <v>218</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+        <f t="shared" si="4"/>
+        <v>726</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="4"/>
+        <v>557</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="4"/>
+        <v>763</v>
+      </c>
+      <c r="L21" s="5">
+        <f>+L16-SUM(L17:L20)</f>
+        <v>825</v>
+      </c>
+      <c r="M21" s="5">
+        <f t="shared" ref="M21:N21" si="5">+M16-SUM(M17:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1598,20 +1913,28 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
-        <f>D17-SUM(D18:D21)</f>
-        <v>669</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E22" s="5">
+        <v>38</v>
+      </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="5">
+        <v>25</v>
+      </c>
       <c r="H22" s="5">
-        <f>H17-SUM(H18:H21)</f>
-        <v>726</v>
-      </c>
-      <c r="I22" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="I22" s="5">
+        <v>43</v>
+      </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="5">
+        <v>37</v>
+      </c>
+      <c r="L22" s="5">
+        <v>44</v>
+      </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -1657,18 +1980,28 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5">
-        <v>34</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="E23" s="5">
+        <v>53</v>
+      </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="5">
+        <v>38</v>
+      </c>
       <c r="H23" s="5">
         <v>39</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5">
+        <v>40</v>
+      </c>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="K23" s="5">
+        <v>39</v>
+      </c>
+      <c r="L23" s="5">
+        <v>36</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -1714,18 +2047,28 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5">
-        <v>49</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="E24" s="5">
+        <v>239</v>
+      </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="5">
+        <v>34</v>
+      </c>
       <c r="H24" s="5">
-        <v>39</v>
-      </c>
-      <c r="I24" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="I24" s="5">
+        <v>40</v>
+      </c>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="K24" s="5">
+        <v>55</v>
+      </c>
+      <c r="L24" s="5">
+        <v>117</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -1769,22 +2112,54 @@
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <f t="shared" ref="C25:K25" si="6">+C21+C22-C23-C24</f>
+        <v>0</v>
+      </c>
       <c r="D25" s="5">
-        <v>182</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+        <f t="shared" si="6"/>
+        <v>472</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="6"/>
+        <v>531</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="6"/>
+        <v>481</v>
+      </c>
       <c r="H25" s="5">
-        <v>58</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+        <f t="shared" si="6"/>
+        <v>668</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="6"/>
+        <v>706</v>
+      </c>
+      <c r="L25" s="5">
+        <f>+L21+L22-L23-L24</f>
+        <v>716</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" ref="M25:N25" si="7">+M21+M22-M23-M24</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -1828,20 +2203,28 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5">
-        <f>D22+D23-D24-D25</f>
-        <v>472</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="E26" s="5">
+        <v>172</v>
+      </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>137</v>
+      </c>
       <c r="H26" s="5">
-        <f>H22+H23-H24-H25</f>
-        <v>668</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="I26" s="5">
+        <v>123</v>
+      </c>
       <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="K26" s="5">
+        <v>212</v>
+      </c>
+      <c r="L26" s="5">
+        <v>193</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1885,22 +2268,54 @@
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5">
-        <v>210</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5">
-        <v>137</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="C27" s="14">
+        <f t="shared" ref="C27:K27" si="8">+C25-C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="8"/>
+        <v>262</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="8"/>
+        <v>359</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="14">
+        <f t="shared" si="8"/>
+        <v>344</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="8"/>
+        <v>531</v>
+      </c>
+      <c r="I27" s="14">
+        <f t="shared" si="8"/>
+        <v>397</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="8"/>
+        <v>494</v>
+      </c>
+      <c r="L27" s="14">
+        <f>+L25-L26</f>
+        <v>523</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" ref="M27:N27" si="9">+M25-M26</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -1939,21 +2354,12 @@
       <c r="AX27" s="5"/>
     </row>
     <row r="28" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <f>D26-D27</f>
-        <v>262</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="5">
-        <f>H26-H27</f>
-        <v>531</v>
-      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1998,16 +2404,49 @@
       <c r="AX28" s="5"/>
     </row>
     <row r="29" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="10" t="e">
+        <f t="shared" ref="C29:G29" si="10">C27/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="10"/>
+        <v>5.2240192028565415</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="10"/>
+        <v>7.1788054467736568</v>
+      </c>
+      <c r="F29" s="10" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="10"/>
+        <v>6.785352207710992</v>
+      </c>
+      <c r="H29" s="10">
+        <f>H27/H30</f>
+        <v>10.473900194619269</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" ref="I29:K29" si="11">+I27/I30</f>
+        <v>7.8307704622075773</v>
+      </c>
+      <c r="J29" s="10" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="11"/>
+        <v>9.7440942455107393</v>
+      </c>
+      <c r="L29" s="10">
+        <f>+L27/L30</f>
+        <v>10.31611597247392</v>
+      </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
@@ -2049,24 +2488,32 @@
     </row>
     <row r="30" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="11">
-        <f>D28/D31</f>
-        <v>5.2240192028565415</v>
-      </c>
-      <c r="E30" s="5"/>
+      <c r="D30" s="5">
+        <v>50.152954999999999</v>
+      </c>
+      <c r="E30" s="5">
+        <v>50.008319999999998</v>
+      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="11">
-        <f>H28/H31</f>
-        <v>10.473900194619269</v>
-      </c>
-      <c r="I30" s="5"/>
+      <c r="G30" s="5">
+        <v>50.697442000000002</v>
+      </c>
+      <c r="H30" s="5">
+        <v>50.697446999999997</v>
+      </c>
+      <c r="I30" s="5">
+        <v>50.697437999999998</v>
+      </c>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="K30" s="5">
+        <v>50.697375000000001</v>
+      </c>
+      <c r="L30" s="5">
+        <v>50.697375000000001</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2107,19 +2554,12 @@
       <c r="AX30" s="5"/>
     </row>
     <row r="31" spans="2:50" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5">
-        <v>50.152954999999999</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="5">
-        <v>50.697446999999997</v>
-      </c>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -2164,18 +2604,45 @@
       <c r="AX31" s="5"/>
     </row>
     <row r="32" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="G32" s="11" t="e">
+        <f t="shared" ref="G32:G34" si="12">G12/C12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="11">
+        <f>H12/D12-1</f>
+        <v>0.42564420987271023</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" ref="I32:J34" si="13">I12/E12-1</f>
+        <v>0.32738427216954835</v>
+      </c>
+      <c r="J32" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" ref="K32:K34" si="14">K12/G12-1</f>
+        <v>0.34513274336283195</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" ref="L32:L34" si="15">L12/H12-1</f>
+        <v>0.29878048780487809</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" ref="M32:M34" si="16">M12/I12-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="11" t="e">
+        <f t="shared" ref="N32:N34" si="17">N12/J12-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -2213,7 +2680,7 @@
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2221,26 +2688,38 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="12" t="e">
-        <f t="shared" ref="G33:G35" si="0">G13/C13-1</f>
+      <c r="G33" s="11" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="12">
-        <f>H13/D13-1</f>
-        <v>0.42564420987271023</v>
-      </c>
-      <c r="I33" s="12" t="e">
-        <f t="shared" ref="I33:J35" si="1">I13/E13-1</f>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:H34" si="18">H13/D13-1</f>
+        <v>0.3214285714285714</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="13"/>
+        <v>0.6187683284457477</v>
+      </c>
+      <c r="J33" s="11" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="12" t="e">
-        <f t="shared" si="1"/>
+      <c r="K33" s="11">
+        <f t="shared" si="14"/>
+        <v>0.62698412698412698</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="15"/>
+        <v>0.71725571725571724</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N33" s="11" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -2278,34 +2757,46 @@
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="15" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="12">
-        <f t="shared" ref="H34:H35" si="2">H14/D14-1</f>
-        <v>0.3214285714285714</v>
-      </c>
-      <c r="I34" s="12" t="e">
-        <f t="shared" si="1"/>
+      <c r="H34" s="15">
+        <f t="shared" si="18"/>
+        <v>0.41506276150627608</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="13"/>
+        <v>0.35268652915711729</v>
+      </c>
+      <c r="J34" s="15" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="12" t="e">
-        <f t="shared" si="1"/>
+      <c r="K34" s="15">
+        <f t="shared" si="14"/>
+        <v>0.36972074774982699</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="15"/>
+        <v>0.33845850581509951</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N34" s="15" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -2343,34 +2834,58 @@
       <c r="AW34" s="5"/>
       <c r="AX34" s="5"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="12" t="e">
-        <f t="shared" si="0"/>
+      <c r="C35" s="11" t="e">
+        <f t="shared" ref="C35:F35" si="19">C15/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="12">
-        <f t="shared" si="2"/>
-        <v>0.41506276150627608</v>
-      </c>
-      <c r="I35" s="12" t="e">
-        <f t="shared" si="1"/>
+      <c r="D35" s="11">
+        <f t="shared" si="19"/>
+        <v>0.48926080892608087</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="19"/>
+        <v>0.46651387827858415</v>
+      </c>
+      <c r="F35" s="11" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="12" t="e">
-        <f t="shared" si="1"/>
+      <c r="G35" s="11">
+        <f t="shared" ref="G35" si="20">G15/G14</f>
+        <v>0.53288714516501268</v>
+      </c>
+      <c r="H35" s="11">
+        <f>H15/H14</f>
+        <v>0.53380642617780405</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" ref="I35:J35" si="21">I15/I14</f>
+        <v>0.54085090361445787</v>
+      </c>
+      <c r="J35" s="11" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="K35" s="11">
+        <f t="shared" ref="K35:N35" si="22">K15/K14</f>
+        <v>0.53310867733782641</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="22"/>
+        <v>0.54432989690721645</v>
+      </c>
+      <c r="M35" s="11" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="11" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -2408,46 +2923,58 @@
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="12" t="e">
-        <f t="shared" ref="C36:F36" si="3">C16/C15</f>
+      <c r="C36" s="11" t="e">
+        <f t="shared" ref="C36:F36" si="23">C21/C14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="12">
-        <f t="shared" si="3"/>
-        <v>0.48926080892608087</v>
-      </c>
-      <c r="E36" s="12" t="e">
-        <f t="shared" si="3"/>
+      <c r="D36" s="11">
+        <f t="shared" si="23"/>
+        <v>0.18661087866108786</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="23"/>
+        <v>0.19989814107461165</v>
+      </c>
+      <c r="F36" s="11" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="12" t="e">
-        <f t="shared" si="3"/>
+      <c r="G36" s="11">
+        <f t="shared" ref="G36" si="24">G21/G14</f>
+        <v>0.12185552734825755</v>
+      </c>
+      <c r="H36" s="11">
+        <f>H21/H14</f>
+        <v>0.14311058545239502</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" ref="I36:J36" si="25">I21/I14</f>
+        <v>0.10485692771084337</v>
+      </c>
+      <c r="J36" s="11" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="12" t="e">
-        <f t="shared" ref="G36" si="4">G16/G15</f>
+      <c r="K36" s="11">
+        <f t="shared" ref="K36:N36" si="26">K21/K14</f>
+        <v>0.12855939342881212</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="26"/>
+        <v>0.12150220913107511</v>
+      </c>
+      <c r="M36" s="11" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="12">
-        <f>H16/H15</f>
-        <v>0.53380642617780405</v>
-      </c>
-      <c r="I36" s="12" t="e">
-        <f t="shared" ref="I36:J36" si="5">I16/I15</f>
+      <c r="N36" s="11" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -2485,46 +3012,58 @@
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:50" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="12" t="e">
-        <f t="shared" ref="C37:F37" si="6">C22/C15</f>
+      <c r="C37" s="11" t="e">
+        <f t="shared" ref="C37:F37" si="27">C26/C25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="12">
-        <f t="shared" si="6"/>
-        <v>0.18661087866108786</v>
-      </c>
-      <c r="E37" s="12" t="e">
-        <f t="shared" si="6"/>
+      <c r="D37" s="11">
+        <f t="shared" si="27"/>
+        <v>0.44491525423728812</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="27"/>
+        <v>0.3239171374764595</v>
+      </c>
+      <c r="F37" s="11" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="12" t="e">
-        <f t="shared" si="6"/>
+      <c r="G37" s="11">
+        <f t="shared" ref="G37" si="28">G26/G25</f>
+        <v>0.28482328482328484</v>
+      </c>
+      <c r="H37" s="11">
+        <f>H26/H25</f>
+        <v>0.20508982035928144</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" ref="I37:J37" si="29">I26/I25</f>
+        <v>0.23653846153846153</v>
+      </c>
+      <c r="J37" s="11" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="12" t="e">
-        <f t="shared" ref="G37" si="7">G22/G15</f>
+      <c r="K37" s="11">
+        <f t="shared" ref="K37:N37" si="30">K26/K25</f>
+        <v>0.3002832861189802</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="30"/>
+        <v>0.26955307262569833</v>
+      </c>
+      <c r="M37" s="11" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="12">
-        <f>H22/H15</f>
-        <v>0.14311058545239502</v>
-      </c>
-      <c r="I37" s="12" t="e">
-        <f t="shared" ref="I37:J37" si="8">I22/I15</f>
+      <c r="N37" s="11" t="e">
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="12" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -2562,42 +3101,15 @@
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="12" t="e">
-        <f t="shared" ref="C38:F38" si="9">C27/C26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="12">
-        <f t="shared" si="9"/>
-        <v>0.44491525423728812</v>
-      </c>
-      <c r="E38" s="12" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="12" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="12" t="e">
-        <f t="shared" ref="G38" si="10">G27/G26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="12">
-        <f>H27/H26</f>
-        <v>0.20508982035928144</v>
-      </c>
-      <c r="I38" s="12" t="e">
-        <f t="shared" ref="I38:J38" si="11">I27/I26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="12" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="38" spans="2:50" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -2639,7 +3151,7 @@
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -2689,13 +3201,7 @@
       <c r="AW39" s="5"/>
       <c r="AX39" s="5"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>60</v>
-      </c>
+    <row r="40" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -2745,7 +3251,7 @@
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -2795,7 +3301,7 @@
       <c r="AW41" s="5"/>
       <c r="AX41" s="5"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -2845,7 +3351,7 @@
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -2895,7 +3401,7 @@
       <c r="AW43" s="5"/>
       <c r="AX43" s="5"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -2945,7 +3451,7 @@
       <c r="AW44" s="5"/>
       <c r="AX44" s="5"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -2995,7 +3501,7 @@
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -3045,7 +3551,7 @@
       <c r="AW46" s="5"/>
       <c r="AX46" s="5"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -3095,7 +3601,7 @@
       <c r="AW47" s="5"/>
       <c r="AX47" s="5"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:50" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -21595,106 +22101,6 @@
       <c r="AW417" s="5"/>
       <c r="AX417" s="5"/>
     </row>
-    <row r="418" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-      <c r="F418" s="5"/>
-      <c r="G418" s="5"/>
-      <c r="H418" s="5"/>
-      <c r="I418" s="5"/>
-      <c r="J418" s="5"/>
-      <c r="K418" s="5"/>
-      <c r="L418" s="5"/>
-      <c r="M418" s="5"/>
-      <c r="N418" s="5"/>
-      <c r="O418" s="5"/>
-      <c r="P418" s="5"/>
-      <c r="Q418" s="5"/>
-      <c r="R418" s="5"/>
-      <c r="S418" s="5"/>
-      <c r="T418" s="5"/>
-      <c r="U418" s="5"/>
-      <c r="V418" s="5"/>
-      <c r="W418" s="5"/>
-      <c r="X418" s="5"/>
-      <c r="Y418" s="5"/>
-      <c r="Z418" s="5"/>
-      <c r="AA418" s="5"/>
-      <c r="AB418" s="5"/>
-      <c r="AC418" s="5"/>
-      <c r="AD418" s="5"/>
-      <c r="AE418" s="5"/>
-      <c r="AF418" s="5"/>
-      <c r="AG418" s="5"/>
-      <c r="AH418" s="5"/>
-      <c r="AI418" s="5"/>
-      <c r="AJ418" s="5"/>
-      <c r="AK418" s="5"/>
-      <c r="AL418" s="5"/>
-      <c r="AM418" s="5"/>
-      <c r="AN418" s="5"/>
-      <c r="AO418" s="5"/>
-      <c r="AP418" s="5"/>
-      <c r="AQ418" s="5"/>
-      <c r="AR418" s="5"/>
-      <c r="AS418" s="5"/>
-      <c r="AT418" s="5"/>
-      <c r="AU418" s="5"/>
-      <c r="AV418" s="5"/>
-      <c r="AW418" s="5"/>
-      <c r="AX418" s="5"/>
-    </row>
-    <row r="419" spans="3:50" x14ac:dyDescent="0.2">
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-      <c r="F419" s="5"/>
-      <c r="G419" s="5"/>
-      <c r="H419" s="5"/>
-      <c r="I419" s="5"/>
-      <c r="J419" s="5"/>
-      <c r="K419" s="5"/>
-      <c r="L419" s="5"/>
-      <c r="M419" s="5"/>
-      <c r="N419" s="5"/>
-      <c r="O419" s="5"/>
-      <c r="P419" s="5"/>
-      <c r="Q419" s="5"/>
-      <c r="R419" s="5"/>
-      <c r="S419" s="5"/>
-      <c r="T419" s="5"/>
-      <c r="U419" s="5"/>
-      <c r="V419" s="5"/>
-      <c r="W419" s="5"/>
-      <c r="X419" s="5"/>
-      <c r="Y419" s="5"/>
-      <c r="Z419" s="5"/>
-      <c r="AA419" s="5"/>
-      <c r="AB419" s="5"/>
-      <c r="AC419" s="5"/>
-      <c r="AD419" s="5"/>
-      <c r="AE419" s="5"/>
-      <c r="AF419" s="5"/>
-      <c r="AG419" s="5"/>
-      <c r="AH419" s="5"/>
-      <c r="AI419" s="5"/>
-      <c r="AJ419" s="5"/>
-      <c r="AK419" s="5"/>
-      <c r="AL419" s="5"/>
-      <c r="AM419" s="5"/>
-      <c r="AN419" s="5"/>
-      <c r="AO419" s="5"/>
-      <c r="AP419" s="5"/>
-      <c r="AQ419" s="5"/>
-      <c r="AR419" s="5"/>
-      <c r="AS419" s="5"/>
-      <c r="AT419" s="5"/>
-      <c r="AU419" s="5"/>
-      <c r="AV419" s="5"/>
-      <c r="AW419" s="5"/>
-      <c r="AX419" s="5"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{271DC55E-4580-4939-9491-1917ECA0B21C}"/>
